--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.1774584205427</v>
+        <v>148.2038823333333</v>
       </c>
       <c r="H2">
-        <v>50.1774584205427</v>
+        <v>444.6116469999999</v>
       </c>
       <c r="I2">
-        <v>0.2489985774556825</v>
+        <v>0.4690635672357343</v>
       </c>
       <c r="J2">
-        <v>0.2489985774556825</v>
+        <v>0.4690635672357342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.36175898593829</v>
+        <v>135.955556</v>
       </c>
       <c r="N2">
-        <v>94.36175898593829</v>
+        <v>407.866668</v>
       </c>
       <c r="O2">
-        <v>0.6356050738128274</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P2">
-        <v>0.6356050738128274</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q2">
-        <v>4734.83323800619</v>
+        <v>20149.14122398691</v>
       </c>
       <c r="R2">
-        <v>4734.83323800619</v>
+        <v>181342.2710158822</v>
       </c>
       <c r="S2">
-        <v>0.1582647592030081</v>
+        <v>0.3258903562014418</v>
       </c>
       <c r="T2">
-        <v>0.1582647592030081</v>
+        <v>0.3258903562014418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.1774584205427</v>
+        <v>148.2038823333333</v>
       </c>
       <c r="H3">
-        <v>50.1774584205427</v>
+        <v>444.6116469999999</v>
       </c>
       <c r="I3">
-        <v>0.2489985774556825</v>
+        <v>0.4690635672357343</v>
       </c>
       <c r="J3">
-        <v>0.2489985774556825</v>
+        <v>0.4690635672357342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>51.878142231875</v>
+        <v>0.449122</v>
       </c>
       <c r="N3">
-        <v>51.878142231875</v>
+        <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.3494425154524411</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P3">
-        <v>0.3494425154524411</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q3">
-        <v>2603.113324774908</v>
+        <v>66.56162404131133</v>
       </c>
       <c r="R3">
-        <v>2603.113324774908</v>
+        <v>599.054616371802</v>
       </c>
       <c r="S3">
-        <v>0.08701068925019317</v>
+        <v>0.001076561582800661</v>
       </c>
       <c r="T3">
-        <v>0.08701068925019317</v>
+        <v>0.001076561582800661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.1774584205427</v>
+        <v>148.2038823333333</v>
       </c>
       <c r="H4">
-        <v>50.1774584205427</v>
+        <v>444.6116469999999</v>
       </c>
       <c r="I4">
-        <v>0.2489985774556825</v>
+        <v>0.4690635672357343</v>
       </c>
       <c r="J4">
-        <v>0.2489985774556825</v>
+        <v>0.4690635672357342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.21983089207526</v>
+        <v>56.38366533333333</v>
       </c>
       <c r="N4">
-        <v>2.21983089207526</v>
+        <v>169.150996</v>
       </c>
       <c r="O4">
-        <v>0.0149524107347315</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="P4">
-        <v>0.0149524107347315</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="Q4">
-        <v>111.3854722877426</v>
+        <v>8356.278102583379</v>
       </c>
       <c r="R4">
-        <v>111.3854722877426</v>
+        <v>75206.5029232504</v>
       </c>
       <c r="S4">
-        <v>0.003723129002481219</v>
+        <v>0.1351536731564165</v>
       </c>
       <c r="T4">
-        <v>0.003723129002481219</v>
+        <v>0.1351536731564165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>91.0810982738233</v>
+        <v>148.2038823333333</v>
       </c>
       <c r="H5">
-        <v>91.0810982738233</v>
+        <v>444.6116469999999</v>
       </c>
       <c r="I5">
-        <v>0.4519771350953556</v>
+        <v>0.4690635672357343</v>
       </c>
       <c r="J5">
-        <v>0.4519771350953556</v>
+        <v>0.4690635672357342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.36175898593829</v>
+        <v>2.896484</v>
       </c>
       <c r="N5">
-        <v>94.36175898593829</v>
+        <v>8.689451999999999</v>
       </c>
       <c r="O5">
-        <v>0.6356050738128274</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="P5">
-        <v>0.6356050738128274</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="Q5">
-        <v>8594.572643489075</v>
+        <v>429.2701739163826</v>
       </c>
       <c r="R5">
-        <v>8594.572643489075</v>
+        <v>3863.431565247443</v>
       </c>
       <c r="S5">
-        <v>0.2872789603139938</v>
+        <v>0.006942976295075259</v>
       </c>
       <c r="T5">
-        <v>0.2872789603139938</v>
+        <v>0.006942976295075259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>91.0810982738233</v>
+        <v>92.51705933333334</v>
       </c>
       <c r="H6">
-        <v>91.0810982738233</v>
+        <v>277.551178</v>
       </c>
       <c r="I6">
-        <v>0.4519771350953556</v>
+        <v>0.2928154188528495</v>
       </c>
       <c r="J6">
-        <v>0.4519771350953556</v>
+        <v>0.2928154188528495</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.878142231875</v>
+        <v>135.955556</v>
       </c>
       <c r="N6">
-        <v>51.878142231875</v>
+        <v>407.866668</v>
       </c>
       <c r="O6">
-        <v>0.3494425154524411</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P6">
-        <v>0.3494425154524411</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q6">
-        <v>4725.11817088479</v>
+        <v>12578.20824114832</v>
       </c>
       <c r="R6">
-        <v>4725.11817088479</v>
+        <v>113203.8741703349</v>
       </c>
       <c r="S6">
-        <v>0.1579400270147089</v>
+        <v>0.2034387827508931</v>
       </c>
       <c r="T6">
-        <v>0.1579400270147089</v>
+        <v>0.2034387827508931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>91.0810982738233</v>
+        <v>92.51705933333334</v>
       </c>
       <c r="H7">
-        <v>91.0810982738233</v>
+        <v>277.551178</v>
       </c>
       <c r="I7">
-        <v>0.4519771350953556</v>
+        <v>0.2928154188528495</v>
       </c>
       <c r="J7">
-        <v>0.4519771350953556</v>
+        <v>0.2928154188528495</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.21983089207526</v>
+        <v>0.449122</v>
       </c>
       <c r="N7">
-        <v>2.21983089207526</v>
+        <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.0149524107347315</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P7">
-        <v>0.0149524107347315</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q7">
-        <v>202.1846356323756</v>
+        <v>41.55144672190534</v>
       </c>
       <c r="R7">
-        <v>202.1846356323756</v>
+        <v>373.963020497148</v>
       </c>
       <c r="S7">
-        <v>0.006758147766652983</v>
+        <v>0.0006720492760637648</v>
       </c>
       <c r="T7">
-        <v>0.006758147766652983</v>
+        <v>0.0006720492760637646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.922401357627845</v>
+        <v>92.51705933333334</v>
       </c>
       <c r="H8">
-        <v>0.922401357627845</v>
+        <v>277.551178</v>
       </c>
       <c r="I8">
-        <v>0.004577286955580314</v>
+        <v>0.2928154188528495</v>
       </c>
       <c r="J8">
-        <v>0.004577286955580314</v>
+        <v>0.2928154188528495</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.36175898593829</v>
+        <v>56.38366533333333</v>
       </c>
       <c r="N8">
-        <v>94.36175898593829</v>
+        <v>169.150996</v>
       </c>
       <c r="O8">
-        <v>0.6356050738128274</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="P8">
-        <v>0.6356050738128274</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="Q8">
-        <v>87.03941459678099</v>
+        <v>5216.450911074809</v>
       </c>
       <c r="R8">
-        <v>87.03941459678099</v>
+        <v>46948.05819967329</v>
       </c>
       <c r="S8">
-        <v>0.002909346813264117</v>
+        <v>0.08437039706157404</v>
       </c>
       <c r="T8">
-        <v>0.002909346813264117</v>
+        <v>0.08437039706157401</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.922401357627845</v>
+        <v>92.51705933333334</v>
       </c>
       <c r="H9">
-        <v>0.922401357627845</v>
+        <v>277.551178</v>
       </c>
       <c r="I9">
-        <v>0.004577286955580314</v>
+        <v>0.2928154188528495</v>
       </c>
       <c r="J9">
-        <v>0.004577286955580314</v>
+        <v>0.2928154188528495</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.878142231875</v>
+        <v>2.896484</v>
       </c>
       <c r="N9">
-        <v>51.878142231875</v>
+        <v>8.689451999999999</v>
       </c>
       <c r="O9">
-        <v>0.3494425154524411</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="P9">
-        <v>0.3494425154524411</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="Q9">
-        <v>47.85246882589195</v>
+        <v>267.9741820860506</v>
       </c>
       <c r="R9">
-        <v>47.85246882589195</v>
+        <v>2411.767638774456</v>
       </c>
       <c r="S9">
-        <v>0.001599498667705631</v>
+        <v>0.004334189764318553</v>
       </c>
       <c r="T9">
-        <v>0.001599498667705631</v>
+        <v>0.004334189764318553</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.922401357627845</v>
+        <v>0.9606106666666666</v>
       </c>
       <c r="H10">
-        <v>0.922401357627845</v>
+        <v>2.881832</v>
       </c>
       <c r="I10">
-        <v>0.004577286955580314</v>
+        <v>0.003040321609240458</v>
       </c>
       <c r="J10">
-        <v>0.004577286955580314</v>
+        <v>0.003040321609240458</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.21983089207526</v>
+        <v>135.955556</v>
       </c>
       <c r="N10">
-        <v>2.21983089207526</v>
+        <v>407.866668</v>
       </c>
       <c r="O10">
-        <v>0.0149524107347315</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P10">
-        <v>0.0149524107347315</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q10">
-        <v>2.04757502855445</v>
+        <v>130.6003572861973</v>
       </c>
       <c r="R10">
-        <v>2.04757502855445</v>
+        <v>1175.403215575776</v>
       </c>
       <c r="S10">
-        <v>6.844147461056552E-05</v>
+        <v>0.002112318161995233</v>
       </c>
       <c r="T10">
-        <v>6.844147461056552E-05</v>
+        <v>0.002112318161995233</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.3360904920824</v>
+        <v>0.9606106666666666</v>
       </c>
       <c r="H11">
-        <v>59.3360904920824</v>
+        <v>2.881832</v>
       </c>
       <c r="I11">
-        <v>0.2944470004933815</v>
+        <v>0.003040321609240458</v>
       </c>
       <c r="J11">
-        <v>0.2944470004933815</v>
+        <v>0.003040321609240458</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>94.36175898593829</v>
+        <v>0.449122</v>
       </c>
       <c r="N11">
-        <v>94.36175898593829</v>
+        <v>1.347366</v>
       </c>
       <c r="O11">
-        <v>0.6356050738128274</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P11">
-        <v>0.6356050738128274</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q11">
-        <v>5599.057870181704</v>
+        <v>0.4314313838346667</v>
       </c>
       <c r="R11">
-        <v>5599.057870181704</v>
+        <v>3.882882454512</v>
       </c>
       <c r="S11">
-        <v>0.1871520074825613</v>
+        <v>6.977931505437139E-06</v>
       </c>
       <c r="T11">
-        <v>0.1871520074825613</v>
+        <v>6.977931505437137E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.3360904920824</v>
+        <v>0.9606106666666666</v>
       </c>
       <c r="H12">
-        <v>59.3360904920824</v>
+        <v>2.881832</v>
       </c>
       <c r="I12">
-        <v>0.2944470004933815</v>
+        <v>0.003040321609240458</v>
       </c>
       <c r="J12">
-        <v>0.2944470004933815</v>
+        <v>0.003040321609240458</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.878142231875</v>
+        <v>56.38366533333333</v>
       </c>
       <c r="N12">
-        <v>51.878142231875</v>
+        <v>169.150996</v>
       </c>
       <c r="O12">
-        <v>0.3494425154524411</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="P12">
-        <v>0.3494425154524411</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="Q12">
-        <v>3078.246142031657</v>
+        <v>54.16275034496356</v>
       </c>
       <c r="R12">
-        <v>3078.246142031657</v>
+        <v>487.464753104672</v>
       </c>
       <c r="S12">
-        <v>0.1028923005198334</v>
+        <v>0.0008760233404765085</v>
       </c>
       <c r="T12">
-        <v>0.1028923005198334</v>
+        <v>0.0008760233404765083</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.3360904920824</v>
+        <v>0.9606106666666666</v>
       </c>
       <c r="H13">
-        <v>59.3360904920824</v>
+        <v>2.881832</v>
       </c>
       <c r="I13">
-        <v>0.2944470004933815</v>
+        <v>0.003040321609240458</v>
       </c>
       <c r="J13">
-        <v>0.2944470004933815</v>
+        <v>0.003040321609240458</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.21983089207526</v>
+        <v>2.896484</v>
       </c>
       <c r="N13">
-        <v>2.21983089207526</v>
+        <v>8.689451999999999</v>
       </c>
       <c r="O13">
-        <v>0.0149524107347315</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="P13">
-        <v>0.0149524107347315</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="Q13">
-        <v>131.7160866892976</v>
+        <v>2.782393426229333</v>
       </c>
       <c r="R13">
-        <v>131.7160866892976</v>
+        <v>25.04154083606399</v>
       </c>
       <c r="S13">
-        <v>0.004402692490986727</v>
+        <v>4.500217526327943E-05</v>
       </c>
       <c r="T13">
-        <v>0.004402692490986727</v>
+        <v>4.500217526327942E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>74.27537266666666</v>
+      </c>
+      <c r="H14">
+        <v>222.826118</v>
+      </c>
+      <c r="I14">
+        <v>0.2350806923021759</v>
+      </c>
+      <c r="J14">
+        <v>0.2350806923021759</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>135.955556</v>
+      </c>
+      <c r="N14">
+        <v>407.866668</v>
+      </c>
+      <c r="O14">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="P14">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="Q14">
+        <v>10098.14958800387</v>
+      </c>
+      <c r="R14">
+        <v>90883.34629203481</v>
+      </c>
+      <c r="S14">
+        <v>0.1633265422891733</v>
+      </c>
+      <c r="T14">
+        <v>0.1633265422891733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>74.27537266666666</v>
+      </c>
+      <c r="H15">
+        <v>222.826118</v>
+      </c>
+      <c r="I15">
+        <v>0.2350806923021759</v>
+      </c>
+      <c r="J15">
+        <v>0.2350806923021759</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.449122</v>
+      </c>
+      <c r="N15">
+        <v>1.347366</v>
+      </c>
+      <c r="O15">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="P15">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="Q15">
+        <v>33.35870392279866</v>
+      </c>
+      <c r="R15">
+        <v>300.228335305188</v>
+      </c>
+      <c r="S15">
+        <v>0.0005395406078586308</v>
+      </c>
+      <c r="T15">
+        <v>0.0005395406078586306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>74.27537266666666</v>
+      </c>
+      <c r="H16">
+        <v>222.826118</v>
+      </c>
+      <c r="I16">
+        <v>0.2350806923021759</v>
+      </c>
+      <c r="J16">
+        <v>0.2350806923021759</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>56.38366533333333</v>
+      </c>
+      <c r="N16">
+        <v>169.150996</v>
+      </c>
+      <c r="O16">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="P16">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="Q16">
+        <v>4187.917754945947</v>
+      </c>
+      <c r="R16">
+        <v>37691.25979451352</v>
+      </c>
+      <c r="S16">
+        <v>0.06773499643135777</v>
+      </c>
+      <c r="T16">
+        <v>0.06773499643135776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>74.27537266666666</v>
+      </c>
+      <c r="H17">
+        <v>222.826118</v>
+      </c>
+      <c r="I17">
+        <v>0.2350806923021759</v>
+      </c>
+      <c r="J17">
+        <v>0.2350806923021759</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.896484</v>
+      </c>
+      <c r="N17">
+        <v>8.689451999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="P17">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="Q17">
+        <v>215.1374285230373</v>
+      </c>
+      <c r="R17">
+        <v>1936.236856707336</v>
+      </c>
+      <c r="S17">
+        <v>0.003479612973786182</v>
+      </c>
+      <c r="T17">
+        <v>0.003479612973786182</v>
       </c>
     </row>
   </sheetData>
